--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS5.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS5.xlsx
@@ -19,7 +19,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="145">
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
   <si>
     <t>Signal_Value_28</t>
   </si>
@@ -273,6 +348,36 @@
     <t>Signal_Value_111</t>
   </si>
   <si>
+    <t>Signal_Value_112</t>
+  </si>
+  <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -345,10 +450,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -709,15 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG6"/>
+  <dimension ref="A1:DP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:85">
+    <row r="1" spans="1:120">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -971,10 +1073,115 @@
       <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:85">
+    <row r="2" spans="1:120">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -983,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09791839795700341</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02810666515091775</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.01567335830169208</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -998,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001707296660179829</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00135612660896812</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1016,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.006469865570966993</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1034,100 +1241,100 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001018941800511766</v>
+        <v>0.00030984913537695</v>
       </c>
       <c r="V2">
-        <v>0.01341010474133464</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01036587700068896</v>
+        <v>0.007248291438690947</v>
       </c>
       <c r="X2">
-        <v>0.01446379520894146</v>
+        <v>0.005516113668517559</v>
       </c>
       <c r="Y2">
-        <v>0.006996446757568506</v>
+        <v>0.249080475630867</v>
       </c>
       <c r="Z2">
-        <v>0.0249883426399343</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>8.452060963939326E-06</v>
+        <v>0.05561819084131292</v>
       </c>
       <c r="AB2">
-        <v>0.0001298139260806957</v>
+        <v>0.295262398493529</v>
       </c>
       <c r="AC2">
-        <v>0.000147130939512158</v>
+        <v>0.1557941043896564</v>
       </c>
       <c r="AD2">
-        <v>0.01767958664204196</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.05991662022259455</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01418093335608447</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01032040233881144</v>
+        <v>0.02108502310641276</v>
       </c>
       <c r="AH2">
-        <v>0.06698757769442787</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.05922554290356671</v>
+        <v>0.05885384304590856</v>
       </c>
       <c r="AJ2">
-        <v>0.02680307285001375</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01120423462869246</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0005438597553867331</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01757773285541516</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.07990154352406335</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0883355330658339</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.07123616188189809</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.05895120776472037</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.009120189329987831</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01966034772241159</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0739928419023542</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.060958619661817</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.05324410546280062</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.06033570705571122</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.04435427756651607</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0198556072382058</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.004085389501108473</v>
+        <v>0</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1228,10 +1435,115 @@
       <c r="CG2">
         <v>0</v>
       </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:85">
+    <row r="3" spans="1:120">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1390,105 +1702,210 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001268590133488524</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.00637594777276033</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.01736120781783559</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.002893826747996629</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.02354823650117225</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.001421041788194603</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.03353250618600412</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.003121792543761564</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001257727623897368</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0005150170749494567</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01258144567778492</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.05908617600492467</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01687057363271821</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.004514700995436013</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.05291452448328442</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.07390949110450312</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.02846510730064135</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.008274404502522016</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001122301415592095</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.00982332520424602</v>
+        <v>0.01916307691171858</v>
       </c>
       <c r="BV3">
-        <v>0.0714144754392444</v>
+        <v>0.003277201922803491</v>
       </c>
       <c r="BW3">
-        <v>0.09108617021643893</v>
+        <v>0.006273519785716675</v>
       </c>
       <c r="BX3">
-        <v>0.08562758986741768</v>
+        <v>0.01365955885209213</v>
       </c>
       <c r="BY3">
-        <v>0.06902037823437979</v>
+        <v>0.01747234010882713</v>
       </c>
       <c r="BZ3">
-        <v>0.01227657744588574</v>
+        <v>0.03038301754322095</v>
       </c>
       <c r="CA3">
-        <v>0.01346047995311278</v>
+        <v>0.0002735756276667319</v>
       </c>
       <c r="CB3">
-        <v>0.07341805059213934</v>
+        <v>9.852873983650845E-06</v>
       </c>
       <c r="CC3">
-        <v>0.06449518545037627</v>
+        <v>0.003307040943687935</v>
       </c>
       <c r="CD3">
-        <v>0.04238374259071095</v>
+        <v>0.02521523471505022</v>
       </c>
       <c r="CE3">
-        <v>0.04835877326329827</v>
+        <v>0.04335187142026602</v>
       </c>
       <c r="CF3">
-        <v>0.04236092170742903</v>
+        <v>0.001099141707364192</v>
       </c>
       <c r="CG3">
-        <v>0.02837166558936122</v>
+        <v>0.001194840936440831</v>
+      </c>
+      <c r="CH3">
+        <v>0.003723151162083175</v>
+      </c>
+      <c r="CI3">
+        <v>0.001409641079113715</v>
+      </c>
+      <c r="CJ3">
+        <v>3.817046790728938E-05</v>
+      </c>
+      <c r="CK3">
+        <v>1.328271644976904E-05</v>
+      </c>
+      <c r="CL3">
+        <v>0.03470064227196377</v>
+      </c>
+      <c r="CM3">
+        <v>0.08830638380733778</v>
+      </c>
+      <c r="CN3">
+        <v>0.08853537213427302</v>
+      </c>
+      <c r="CO3">
+        <v>0.1426483431290401</v>
+      </c>
+      <c r="CP3">
+        <v>0.005733035599449877</v>
+      </c>
+      <c r="CQ3">
+        <v>0.0867510213267863</v>
+      </c>
+      <c r="CR3">
+        <v>0.02961175210560774</v>
+      </c>
+      <c r="CS3">
+        <v>0.06963734846660706</v>
+      </c>
+      <c r="CT3">
+        <v>0.06290787154047826</v>
+      </c>
+      <c r="CU3">
+        <v>0.09212058513641626</v>
+      </c>
+      <c r="CV3">
+        <v>0.04523795789414385</v>
+      </c>
+      <c r="CW3">
+        <v>0.002520008050719147</v>
+      </c>
+      <c r="CX3">
+        <v>0.0302428136456723</v>
+      </c>
+      <c r="CY3">
+        <v>0.04788299438885277</v>
+      </c>
+      <c r="CZ3">
+        <v>0.003299351728259375</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:85">
+    <row r="4" spans="1:120">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1500,100 +1917,100 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004161788688028617</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.006606001229545469</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.008139799496256494</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.04663981004664399</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.007457412406149777</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0531459447428426</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03774395602604735</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.009170300992691642</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001293688587728156</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0006471777692187566</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.107109759173632</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.04476612017907988</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01465981129392373</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.06535398428432758</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.06877686485501153</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.03806680169156453</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01244964333252585</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.007475837002077609</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01838968516777576</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.04684467260515757</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.06083112472467729</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.04967535849365368</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.05844206084129539</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.008662540147722251</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01463400702800952</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.07343166171193538</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.05679444226285264</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.02504203572033895</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01845476487453439</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01222859584982939</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01651036074193076</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0063939880329915</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1698,54 +2115,159 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.02611254724235452</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.003065370314615269</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>0.007347940046468119</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>6.983080604015793E-05</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>0.04677485573893701</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>0.002822761211631661</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>0.01578244002699293</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>0.0430912931376663</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>9.806668358963799E-05</v>
       </c>
       <c r="CB4">
-        <v>0</v>
+        <v>0.005913280549210239</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>0.04328869084135853</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>0.0001245148443164673</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>0.02951840239959239</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>0.009745908507051742</v>
       </c>
       <c r="CG4">
+        <v>0.001923589754925224</v>
+      </c>
+      <c r="CH4">
+        <v>0.005500296178357538</v>
+      </c>
+      <c r="CI4">
+        <v>0.007253375136599864</v>
+      </c>
+      <c r="CJ4">
+        <v>6.153806015817325E-05</v>
+      </c>
+      <c r="CK4">
+        <v>0.008907025996133763</v>
+      </c>
+      <c r="CL4">
+        <v>0.1058516260437409</v>
+      </c>
+      <c r="CM4">
+        <v>0.05469090122996757</v>
+      </c>
+      <c r="CN4">
+        <v>0.03239655296029127</v>
+      </c>
+      <c r="CO4">
+        <v>0.03804109386847225</v>
+      </c>
+      <c r="CP4">
+        <v>0.0006506035790345889</v>
+      </c>
+      <c r="CQ4">
+        <v>0.06612849288998056</v>
+      </c>
+      <c r="CR4">
+        <v>0.06741254194228201</v>
+      </c>
+      <c r="CS4">
+        <v>0.05064302835433534</v>
+      </c>
+      <c r="CT4">
+        <v>0.118027804807802</v>
+      </c>
+      <c r="CU4">
+        <v>0.07239622262398891</v>
+      </c>
+      <c r="CV4">
+        <v>0.02542988994153635</v>
+      </c>
+      <c r="CW4">
+        <v>0.00800621741017557</v>
+      </c>
+      <c r="CX4">
+        <v>0.1029232968723931</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:85">
+    <row r="5" spans="1:120">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1754,100 +2276,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008492737861296795</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03915987439728689</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0004954956746211713</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.09233703914691668</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0008782197450807124</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.09074101556314637</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01617139518925172</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01270335397300527</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.005718223450062958</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1113489579694192</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.01806346673364969</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.02006243391796099</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.07234761777884587</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.06128756735219801</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02887130740924261</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002235743363076028</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.007762965963766194</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01806058119346819</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.05640001739157987</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.05460895498512495</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.04446942064715882</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.04711164971120018</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.002750485009368799</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02257947927921434</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.06323813497333118</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.03971859282677706</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01822074170501346</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.01408834251785192</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.009991209539665261</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01579940082648621</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.004285573904932738</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1999,10 +2521,115 @@
       <c r="CG5">
         <v>0</v>
       </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0.05057407969881327</v>
+      </c>
+      <c r="CL5">
+        <v>0.05380795375702083</v>
+      </c>
+      <c r="CM5">
+        <v>0.003844601405067111</v>
+      </c>
+      <c r="CN5">
+        <v>0.03003120761501816</v>
+      </c>
+      <c r="CO5">
+        <v>0.07135091795657519</v>
+      </c>
+      <c r="CP5">
+        <v>0.02678542138983264</v>
+      </c>
+      <c r="CQ5">
+        <v>0.09193739191847866</v>
+      </c>
+      <c r="CR5">
+        <v>0.002414359828713662</v>
+      </c>
+      <c r="CS5">
+        <v>0.01699759846301811</v>
+      </c>
+      <c r="CT5">
+        <v>0.001179772280604648</v>
+      </c>
+      <c r="CU5">
+        <v>0.1439269851825186</v>
+      </c>
+      <c r="CV5">
+        <v>0.003052742006893741</v>
+      </c>
+      <c r="CW5">
+        <v>0.0500689916481511</v>
+      </c>
+      <c r="CX5">
+        <v>0.003093909073714858</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0.001528740527104852</v>
+      </c>
+      <c r="DA5">
+        <v>0.009809056011282322</v>
+      </c>
+      <c r="DB5">
+        <v>0.002549228553016013</v>
+      </c>
+      <c r="DC5">
+        <v>0.04777702204352499</v>
+      </c>
+      <c r="DD5">
+        <v>0.08725880738035278</v>
+      </c>
+      <c r="DE5">
+        <v>0.06286477148500513</v>
+      </c>
+      <c r="DF5">
+        <v>0.003397153376819834</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0.001541278403419245</v>
+      </c>
+      <c r="DI5">
+        <v>0.02365939145452486</v>
+      </c>
+      <c r="DJ5">
+        <v>0.02196536655703484</v>
+      </c>
+      <c r="DK5">
+        <v>0.006748894208763799</v>
+      </c>
+      <c r="DL5">
+        <v>0.04415339127069846</v>
+      </c>
+      <c r="DM5">
+        <v>0.1071986730097227</v>
+      </c>
+      <c r="DN5">
+        <v>0.003143618300924627</v>
+      </c>
+      <c r="DO5">
+        <v>0.0146317673377304</v>
+      </c>
+      <c r="DP5">
+        <v>0.01270690785565482</v>
+      </c>
     </row>
-    <row r="6" spans="1:85">
+    <row r="6" spans="1:120">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2011,100 +2638,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002910701748397657</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01295943266949503</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.002276291384885336</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.04696568502646657</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.00331134664809316</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.06622928641070319</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02076642403285932</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.008971136080181442</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.003677863718738224</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0002093661533471658</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08482877306419626</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04231299698230306</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.002317984573509379</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.08053896744672563</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.08854464209355792</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0259982763612028</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.003917244716325571</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.004046106807820654</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01532492351738959</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.06169004368786838</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.06299224258369371</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.05524316980704128</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.06163891524782264</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.009044965532191123</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01711238973734734</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.08096148430375381</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.06038324300119318</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.02005397855049375</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01828084031852893</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01342980545349472</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01823138378541005</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004830088554963337</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2245,15 +2872,120 @@
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>0.03409128208637412</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>0.001147133241791773</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>0.0004531010198092271</v>
       </c>
       <c r="CG6">
+        <v>0.001918576063599867</v>
+      </c>
+      <c r="CH6">
+        <v>0.07945447670587599</v>
+      </c>
+      <c r="CI6">
+        <v>0.03193683174745512</v>
+      </c>
+      <c r="CJ6">
+        <v>0.001817864728636441</v>
+      </c>
+      <c r="CK6">
+        <v>0.01176965236637131</v>
+      </c>
+      <c r="CL6">
+        <v>0.1003673164551449</v>
+      </c>
+      <c r="CM6">
+        <v>0.0698169453883882</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0.01283194854847904</v>
+      </c>
+      <c r="CP6">
+        <v>0.0005147922286273934</v>
+      </c>
+      <c r="CQ6">
+        <v>0.0002376878315041023</v>
+      </c>
+      <c r="CR6">
+        <v>0.004083109505481268</v>
+      </c>
+      <c r="CS6">
+        <v>0.002361322876443582</v>
+      </c>
+      <c r="CT6">
+        <v>0.0001729532984717593</v>
+      </c>
+      <c r="CU6">
+        <v>0.05302290863267347</v>
+      </c>
+      <c r="CV6">
+        <v>0.1800923288108497</v>
+      </c>
+      <c r="CW6">
+        <v>0.04041901088895985</v>
+      </c>
+      <c r="CX6">
+        <v>0.009027170173537177</v>
+      </c>
+      <c r="CY6">
+        <v>0.01073023050271038</v>
+      </c>
+      <c r="CZ6">
+        <v>0.06079434330718805</v>
+      </c>
+      <c r="DA6">
+        <v>0.03296522523212647</v>
+      </c>
+      <c r="DB6">
+        <v>0.006347154836626899</v>
+      </c>
+      <c r="DC6">
+        <v>0.004430729790088003</v>
+      </c>
+      <c r="DD6">
+        <v>0.05921167238651207</v>
+      </c>
+      <c r="DE6">
+        <v>0.07499904586736528</v>
+      </c>
+      <c r="DF6">
+        <v>0.001291519656574496</v>
+      </c>
+      <c r="DG6">
+        <v>0.03587987709112909</v>
+      </c>
+      <c r="DH6">
+        <v>0.07713456617082726</v>
+      </c>
+      <c r="DI6">
+        <v>0.0006792225603776358</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
         <v>0</v>
       </c>
     </row>
@@ -2264,15 +2996,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG6"/>
+  <dimension ref="A1:DP6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:85">
+    <row r="1" spans="1:120">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2526,10 +3258,115 @@
       <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:85">
+    <row r="2" spans="1:120">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2538,148 +3375,148 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09791839795700341</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1260250631079212</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1416984214096133</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1416984214096133</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1416984214096133</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1434057180697931</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1434057180697931</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1447618446787612</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1447618446787612</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1447618446787612</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1447618446787612</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.1512317102497282</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1512317102497282</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.1512317102497282</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.1512317102497282</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1512317102497282</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.1512317102497282</v>
       </c>
       <c r="U2">
-        <v>0.001018941800511766</v>
+        <v>0.1515415593851051</v>
       </c>
       <c r="V2">
-        <v>0.0144290465418464</v>
+        <v>0.1515415593851051</v>
       </c>
       <c r="W2">
-        <v>0.02479492354253536</v>
+        <v>0.1587898508237961</v>
       </c>
       <c r="X2">
-        <v>0.03925871875147682</v>
+        <v>0.1643059644923136</v>
       </c>
       <c r="Y2">
-        <v>0.04625516550904533</v>
+        <v>0.4133864401231806</v>
       </c>
       <c r="Z2">
-        <v>0.07124350814897963</v>
+        <v>0.4133864401231806</v>
       </c>
       <c r="AA2">
-        <v>0.07125196020994357</v>
+        <v>0.4690046309644935</v>
       </c>
       <c r="AB2">
-        <v>0.07138177413602426</v>
+        <v>0.7642670294580225</v>
       </c>
       <c r="AC2">
-        <v>0.07152890507553641</v>
+        <v>0.9200611338476788</v>
       </c>
       <c r="AD2">
-        <v>0.08920849171757837</v>
+        <v>0.9200611338476788</v>
       </c>
       <c r="AE2">
-        <v>0.1491251119401729</v>
+        <v>0.9200611338476788</v>
       </c>
       <c r="AF2">
-        <v>0.1633060452962574</v>
+        <v>0.9200611338476788</v>
       </c>
       <c r="AG2">
-        <v>0.1736264476350688</v>
+        <v>0.9411461569540917</v>
       </c>
       <c r="AH2">
-        <v>0.2406140253294967</v>
+        <v>0.9411461569540917</v>
       </c>
       <c r="AI2">
-        <v>0.2998395682330634</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.3266426410830772</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.3378468757117696</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.3383907354671564</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.3559684683225715</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.4358700118466349</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.5242055449124687</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.5954417067943668</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.6543929145590872</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.663513103889075</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.6831734516114866</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.7571662935138408</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.8181249131756578</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.8713690186384585</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.9317047256941697</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.9760590032606858</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.9959146104988916</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
         <v>1</v>
@@ -2783,10 +3620,115 @@
       <c r="CG2">
         <v>1</v>
       </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:85">
+    <row r="3" spans="1:120">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2945,105 +3887,210 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001268590133488524</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.007644537906248854</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.02500574572408444</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.02789957247208107</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.05144780897325332</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.05286885076144793</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.08640135694745205</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.08952314949121361</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.08964892225360334</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.09016393932855279</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.1027453850063377</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.1618315610112624</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.1787021346439806</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.1832168356394166</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.236131360122701</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.3100408512272042</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.3385059585278455</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.3467803630303675</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.3479026644459596</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.3577259896502056</v>
+        <v>0.01916307691171858</v>
       </c>
       <c r="BV3">
-        <v>0.42914046508945</v>
+        <v>0.02244027883452207</v>
       </c>
       <c r="BW3">
-        <v>0.520226635305889</v>
+        <v>0.02871379862023875</v>
       </c>
       <c r="BX3">
-        <v>0.6058542251733067</v>
+        <v>0.04237335747233088</v>
       </c>
       <c r="BY3">
-        <v>0.6748746034076865</v>
+        <v>0.05984569758115801</v>
       </c>
       <c r="BZ3">
-        <v>0.6871511808535722</v>
+        <v>0.09022871512437897</v>
       </c>
       <c r="CA3">
-        <v>0.700611660806685</v>
+        <v>0.0905022907520457</v>
       </c>
       <c r="CB3">
-        <v>0.7740297113988244</v>
+        <v>0.09051214362602936</v>
       </c>
       <c r="CC3">
-        <v>0.8385248968492006</v>
+        <v>0.09381918456971729</v>
       </c>
       <c r="CD3">
-        <v>0.8809086394399116</v>
+        <v>0.1190344192847675</v>
       </c>
       <c r="CE3">
-        <v>0.9292674127032099</v>
+        <v>0.1623862907050335</v>
       </c>
       <c r="CF3">
-        <v>0.9716283344106389</v>
+        <v>0.1634854324123977</v>
       </c>
       <c r="CG3">
+        <v>0.1646802733488386</v>
+      </c>
+      <c r="CH3">
+        <v>0.1684034245109217</v>
+      </c>
+      <c r="CI3">
+        <v>0.1698130655900355</v>
+      </c>
+      <c r="CJ3">
+        <v>0.1698512360579428</v>
+      </c>
+      <c r="CK3">
+        <v>0.1698645187743925</v>
+      </c>
+      <c r="CL3">
+        <v>0.2045651610463563</v>
+      </c>
+      <c r="CM3">
+        <v>0.2928715448536941</v>
+      </c>
+      <c r="CN3">
+        <v>0.3814069169879671</v>
+      </c>
+      <c r="CO3">
+        <v>0.5240552601170072</v>
+      </c>
+      <c r="CP3">
+        <v>0.5297882957164571</v>
+      </c>
+      <c r="CQ3">
+        <v>0.6165393170432434</v>
+      </c>
+      <c r="CR3">
+        <v>0.6461510691488511</v>
+      </c>
+      <c r="CS3">
+        <v>0.7157884176154582</v>
+      </c>
+      <c r="CT3">
+        <v>0.7786962891559365</v>
+      </c>
+      <c r="CU3">
+        <v>0.8708168742923528</v>
+      </c>
+      <c r="CV3">
+        <v>0.9160548321864966</v>
+      </c>
+      <c r="CW3">
+        <v>0.9185748402372158</v>
+      </c>
+      <c r="CX3">
+        <v>0.9488176538828881</v>
+      </c>
+      <c r="CY3">
+        <v>0.9967006482717409</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>1</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>1</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DL3">
+        <v>1</v>
+      </c>
+      <c r="DM3">
+        <v>1</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DP3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:85">
+    <row r="4" spans="1:120">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3055,252 +4102,357 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004161788688028617</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01076778991757409</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01890758941383058</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.06554739946047457</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.07300481186662434</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.126150756609467</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1638947126355143</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1730650136282059</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1743587022159341</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1750058799851529</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2821156391587848</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.3268817593378647</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.3415415706317884</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.406895554916116</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4756724197711275</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.513739221462692</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.5261888647952179</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.5336647017972955</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.5520543869650713</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.5988990595702288</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.6597301842949062</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.7094055427885598</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.7678476036298553</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.7765101437775775</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.7911441508055871</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.8645758125175225</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9213702547803752</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9464122905007141</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9648670553752484</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9770956512250778</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.9936060119670086</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0.02611254724235452</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.02917791755696979</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0.03652585760343791</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0.03659568840947807</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0.08337054414841508</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0.08619330536004674</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>0.1019757453870397</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0.145067038524706</v>
       </c>
       <c r="CA4">
-        <v>1</v>
+        <v>0.1451651052082956</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0.1510783857575058</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>0.1943670765988644</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>0.1944915914431808</v>
       </c>
       <c r="CE4">
-        <v>1</v>
+        <v>0.2240099938427732</v>
       </c>
       <c r="CF4">
-        <v>1</v>
+        <v>0.233755902349825</v>
       </c>
       <c r="CG4">
-        <v>1</v>
+        <v>0.2356794921047502</v>
+      </c>
+      <c r="CH4">
+        <v>0.2411797882831077</v>
+      </c>
+      <c r="CI4">
+        <v>0.2484331634197076</v>
+      </c>
+      <c r="CJ4">
+        <v>0.2484947014798658</v>
+      </c>
+      <c r="CK4">
+        <v>0.2574017274759995</v>
+      </c>
+      <c r="CL4">
+        <v>0.3632533535197404</v>
+      </c>
+      <c r="CM4">
+        <v>0.417944254749708</v>
+      </c>
+      <c r="CN4">
+        <v>0.4503408077099992</v>
+      </c>
+      <c r="CO4">
+        <v>0.4883819015784715</v>
+      </c>
+      <c r="CP4">
+        <v>0.4890325051575061</v>
+      </c>
+      <c r="CQ4">
+        <v>0.5551609980474866</v>
+      </c>
+      <c r="CR4">
+        <v>0.6225735399897686</v>
+      </c>
+      <c r="CS4">
+        <v>0.6732165683441039</v>
+      </c>
+      <c r="CT4">
+        <v>0.7912443731519059</v>
+      </c>
+      <c r="CU4">
+        <v>0.8636405957758948</v>
+      </c>
+      <c r="CV4">
+        <v>0.8890704857174312</v>
+      </c>
+      <c r="CW4">
+        <v>0.8970767031276068</v>
+      </c>
+      <c r="CX4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DI4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DL4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DM4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DN4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DO4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DP4">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:85">
+    <row r="5" spans="1:120">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3309,255 +4461,360 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008492737861296795</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04765261225858368</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.04814810793320485</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1404851470801215</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1413633668252022</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2321043823883486</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2482757775776003</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2609791315506056</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2609791315506056</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2666973550006685</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3780463129700877</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3961097797037374</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.4161722136216984</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.4885198314005442</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.5498073987527422</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5786787061619848</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.5809144495250609</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.5886774154888271</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.6067379966822953</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.6631380140738752</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.7177469690590002</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.762216389706159</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.8093280394173592</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.812078524426728</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.8346580037059423</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.8978961386792735</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.9376147315060506</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.955835473211064</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.969923815728916</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.9799150252685812</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9957144260950674</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0.05057407969881327</v>
+      </c>
+      <c r="CL5">
+        <v>0.1043820334558341</v>
+      </c>
+      <c r="CM5">
+        <v>0.1082266348609012</v>
+      </c>
+      <c r="CN5">
+        <v>0.1382578424759194</v>
+      </c>
+      <c r="CO5">
+        <v>0.2096087604324946</v>
+      </c>
+      <c r="CP5">
+        <v>0.2363941818223272</v>
+      </c>
+      <c r="CQ5">
+        <v>0.3283315737408059</v>
+      </c>
+      <c r="CR5">
+        <v>0.3307459335695196</v>
+      </c>
+      <c r="CS5">
+        <v>0.3477435320325377</v>
+      </c>
+      <c r="CT5">
+        <v>0.3489233043131424</v>
+      </c>
+      <c r="CU5">
+        <v>0.492850289495661</v>
+      </c>
+      <c r="CV5">
+        <v>0.4959030315025547</v>
+      </c>
+      <c r="CW5">
+        <v>0.5459720231507058</v>
+      </c>
+      <c r="CX5">
+        <v>0.5490659322244207</v>
+      </c>
+      <c r="CY5">
+        <v>0.5490659322244207</v>
+      </c>
+      <c r="CZ5">
+        <v>0.5505946727515255</v>
+      </c>
+      <c r="DA5">
+        <v>0.5604037287628079</v>
+      </c>
+      <c r="DB5">
+        <v>0.5629529573158238</v>
+      </c>
+      <c r="DC5">
+        <v>0.6107299793593488</v>
+      </c>
+      <c r="DD5">
+        <v>0.6979887867397015</v>
+      </c>
+      <c r="DE5">
+        <v>0.7608535582247067</v>
+      </c>
+      <c r="DF5">
+        <v>0.7642507116015265</v>
+      </c>
+      <c r="DG5">
+        <v>0.7642507116015265</v>
+      </c>
+      <c r="DH5">
+        <v>0.7657919900049457</v>
+      </c>
+      <c r="DI5">
+        <v>0.7894513814594706</v>
+      </c>
+      <c r="DJ5">
+        <v>0.8114167480165054</v>
+      </c>
+      <c r="DK5">
+        <v>0.8181656422252692</v>
+      </c>
+      <c r="DL5">
+        <v>0.8623190334959677</v>
+      </c>
+      <c r="DM5">
+        <v>0.9695177065056904</v>
+      </c>
+      <c r="DN5">
+        <v>0.9726613248066149</v>
+      </c>
+      <c r="DO5">
+        <v>0.9872930921443454</v>
+      </c>
+      <c r="DP5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:85">
+    <row r="6" spans="1:120">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3566,250 +4823,355 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002910701748397657</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01587013441789269</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01814642580277802</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.06511211082924459</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.06842345747733775</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1346527438880409</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1554191679209003</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1643903040010817</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1680681677198199</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1682775338731671</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2531063069373634</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2954193039196664</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2977372884931758</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.3782762559399014</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.4668208980334594</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.4928191743946622</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.4967364191109878</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.5007825259188085</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.516107449436198</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.5777974931240664</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.6407897357077601</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.6960329055148013</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.757671820762624</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.7667167862948151</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.7838291760321624</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.8647906603359162</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9251739033371094</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9452278818876031</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.963508722206132</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9769385276596267</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9951699114450367</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1</v>
+        <v>0.03409128208637412</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>0.03523841532816589</v>
       </c>
       <c r="CF6">
-        <v>1</v>
+        <v>0.03569151634797512</v>
       </c>
       <c r="CG6">
-        <v>1</v>
+        <v>0.03761009241157499</v>
+      </c>
+      <c r="CH6">
+        <v>0.117064569117451</v>
+      </c>
+      <c r="CI6">
+        <v>0.1490014008649061</v>
+      </c>
+      <c r="CJ6">
+        <v>0.1508192655935425</v>
+      </c>
+      <c r="CK6">
+        <v>0.1625889179599138</v>
+      </c>
+      <c r="CL6">
+        <v>0.2629562344150588</v>
+      </c>
+      <c r="CM6">
+        <v>0.332773179803447</v>
+      </c>
+      <c r="CN6">
+        <v>0.332773179803447</v>
+      </c>
+      <c r="CO6">
+        <v>0.345605128351926</v>
+      </c>
+      <c r="CP6">
+        <v>0.3461199205805534</v>
+      </c>
+      <c r="CQ6">
+        <v>0.3463576084120575</v>
+      </c>
+      <c r="CR6">
+        <v>0.3504407179175388</v>
+      </c>
+      <c r="CS6">
+        <v>0.3528020407939824</v>
+      </c>
+      <c r="CT6">
+        <v>0.3529749940924541</v>
+      </c>
+      <c r="CU6">
+        <v>0.4059979027251276</v>
+      </c>
+      <c r="CV6">
+        <v>0.5860902315359773</v>
+      </c>
+      <c r="CW6">
+        <v>0.6265092424249371</v>
+      </c>
+      <c r="CX6">
+        <v>0.6355364125984743</v>
+      </c>
+      <c r="CY6">
+        <v>0.6462666431011846</v>
+      </c>
+      <c r="CZ6">
+        <v>0.7070609864083727</v>
+      </c>
+      <c r="DA6">
+        <v>0.7400262116404992</v>
+      </c>
+      <c r="DB6">
+        <v>0.746373366477126</v>
+      </c>
+      <c r="DC6">
+        <v>0.750804096267214</v>
+      </c>
+      <c r="DD6">
+        <v>0.810015768653726</v>
+      </c>
+      <c r="DE6">
+        <v>0.8850148145210913</v>
+      </c>
+      <c r="DF6">
+        <v>0.8863063341776658</v>
+      </c>
+      <c r="DG6">
+        <v>0.9221862112687949</v>
+      </c>
+      <c r="DH6">
+        <v>0.9993207774396221</v>
+      </c>
+      <c r="DI6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DL6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DM6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DN6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DO6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DP6">
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3827,302 +5189,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0.0144290465418464</v>
+        <v>0.09791839795700341</v>
       </c>
       <c r="F2">
-        <v>0.5242055449124687</v>
+        <v>0.7642670294580225</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.02500574572408444</v>
+        <v>0.09022871512437897</v>
       </c>
       <c r="F3">
-        <v>0.520226635305889</v>
+        <v>0.5240552601170072</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.01076778991757409</v>
+        <v>0.08337054414841508</v>
       </c>
       <c r="F4">
-        <v>0.513739221462692</v>
+        <v>0.5551609980474866</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.04765261225858368</v>
+        <v>0.1043820334558341</v>
       </c>
       <c r="F5">
-        <v>0.5498073987527422</v>
+        <v>0.5459720231507058</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.01587013441789269</v>
+        <v>0.117064569117451</v>
       </c>
       <c r="F6">
-        <v>0.5007825259188085</v>
+        <v>0.5860902315359773</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4140,72 +5487,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0.0144290465418464</v>
+        <v>0.09791839795700341</v>
       </c>
       <c r="F2">
-        <v>0.7571662935138408</v>
+        <v>0.7642670294580225</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -4214,148 +5561,139 @@
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>0.02500574572408444</v>
+        <v>0.09022871512437897</v>
       </c>
       <c r="F3">
-        <v>0.700611660806685</v>
+        <v>0.7157884176154582</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.01076778991757409</v>
+        <v>0.08337054414841508</v>
       </c>
       <c r="F4">
-        <v>0.7094055427885598</v>
+        <v>0.7912443731519059</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.04765261225858368</v>
+        <v>0.1043820334558341</v>
       </c>
       <c r="F5">
-        <v>0.7177469690590002</v>
+        <v>0.7608535582247067</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -4364,78 +5702,72 @@
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>0.01587013441789269</v>
+        <v>0.117064569117451</v>
       </c>
       <c r="F6">
-        <v>0.757671820762624</v>
+        <v>0.7070609864083727</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4453,72 +5785,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0.0144290465418464</v>
+        <v>0.09791839795700341</v>
       </c>
       <c r="F2">
-        <v>0.8181249131756578</v>
+        <v>0.9200611338476788</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -4527,98 +5859,92 @@
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.02500574572408444</v>
+        <v>0.09022871512437897</v>
       </c>
       <c r="F3">
-        <v>0.8385248968492006</v>
+        <v>0.8708168742923528</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.01076778991757409</v>
+        <v>0.08337054414841508</v>
       </c>
       <c r="F4">
-        <v>0.8645758125175225</v>
+        <v>0.8636405957758948</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -4627,128 +5953,119 @@
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="E5">
-        <v>0.04765261225858368</v>
+        <v>0.1043820334558341</v>
       </c>
       <c r="F5">
-        <v>0.8093280394173592</v>
+        <v>0.8114167480165054</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01587013441789269</v>
+        <v>0.117064569117451</v>
       </c>
       <c r="F6">
-        <v>0.8647906603359162</v>
+        <v>0.810015768653726</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4766,272 +6083,260 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0.0144290465418464</v>
+        <v>0.09791839795700341</v>
       </c>
       <c r="F2">
-        <v>0.9317047256941697</v>
+        <v>0.9200611338476788</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.02500574572408444</v>
+        <v>0.09022871512437897</v>
       </c>
       <c r="F3">
-        <v>0.9292674127032099</v>
+        <v>0.9160548321864966</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.01076778991757409</v>
+        <v>0.08337054414841508</v>
       </c>
       <c r="F4">
-        <v>0.9213702547803752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>0.04765261225858368</v>
+        <v>0.1043820334558341</v>
       </c>
       <c r="F5">
-        <v>0.9376147315060506</v>
+        <v>0.9695177065056904</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>0.01587013441789269</v>
+        <v>0.117064569117451</v>
       </c>
       <c r="F6">
-        <v>0.9251739033371094</v>
+        <v>0.9221862112687949</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -5040,28 +6345,25 @@
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
